--- a/controle_qualidade.xlsx
+++ b/controle_qualidade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optiplex_3050\Downloads\bot_consulta_faturas-testes_js\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProDesk_600_G3\Documents\bot_consultar_faturas\consultar_testejs\bot_consulta_faturas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E1B1A0-1473-4442-BE54-81E82DD7B2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF40C64-7503-4937-A98E-B01CBA4A0778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA937B2F-AC17-4E66-A5CB-6FC88E085EFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FA937B2F-AC17-4E66-A5CB-6FC88E085EFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Safras em Tratamento" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>Safra</t>
   </si>
@@ -402,6 +402,24 @@
   <si>
     <t>Shayanne Souza Costa</t>
   </si>
+  <si>
+    <t>ROMILDO DOS SANTOS VILELA</t>
+  </si>
+  <si>
+    <t>4-178139598159</t>
+  </si>
+  <si>
+    <t>(32) 99818-5043</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Logo após instalar, cliente pediu para cancelar, mas não informou o motivo (Atualizado 17/07/2024)</t>
+  </si>
 </sst>
 </file>
 
@@ -413,7 +431,7 @@
     <numFmt numFmtId="165" formatCode="00000000000000"/>
     <numFmt numFmtId="166" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +510,13 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -691,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,6 +863,78 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -31619,10 +31716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB2E909-9E96-4F77-BC3A-18504839B008}">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31643,25 +31740,25 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="2" t="e">
         <f>IF(N1="RSE",_xlfn.XLOOKUP(E1,'[1]Base FPD RSE'!$C:$C,'[1]Base FPD RSE'!$A:$A,""),IF(#REF!="RCS",_xlfn.XLOOKUP(#REF!,'[1]Base FPD RCS'!$G:$G,'[1]Base FPD RCS'!AL:AL,""),_xlfn.XLOOKUP(#REF!,'[1]Base FPD RNN'!$U:$U,'[1]Base FPD RNN'!$F:$F,"")))</f>
-        <v/>
+        <v>#REF!</v>
       </c>
-      <c r="P1" s="3" t="str">
+      <c r="P1" s="3" t="e">
         <f>IF(N1="RSE",_xlfn.XLOOKUP(E1,'[1]Base FPD RSE'!$C:$C,'[1]Base FPD RSE'!$N:$N,""),IF(#REF!="RCS",_xlfn.XLOOKUP(#REF!,'[1]Base FPD RCS'!$G:$G,'[1]Base FPD RCS'!$AK:$AK,""),_xlfn.XLOOKUP(#REF!,'[1]Base FPD RNN'!$U:$U,'[1]Base FPD RNN'!$A:$A,"")))</f>
-        <v/>
+        <v>#REF!</v>
       </c>
-      <c r="Q1" s="3" t="str">
+      <c r="Q1" s="3" t="e">
         <f>IF(N1="RSE",_xlfn.XLOOKUP(E1,'[1]Base FPD RSE'!$C:$C,'[1]Base FPD RSE'!$U:$U,""),IF(#REF!="RCS",_xlfn.XLOOKUP(#REF!,'[1]Base FPD RCS'!$G:$G,'[1]Base FPD RCS'!$P:$P,""),_xlfn.XLOOKUP(#REF!,'[1]Base FPD RNN'!$U:$U,'[1]Base FPD RNN'!$BO:$BO,"")))</f>
-        <v/>
+        <v>#REF!</v>
       </c>
-      <c r="S1" s="4" t="str">
+      <c r="S1" s="4" t="e">
         <f>_xlfn.XLOOKUP(#REF!,'[1]Base FPD RCS'!$G:$G,'[1]Base FPD RCS'!$AK:$AK,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
-      <c r="T1" s="4" t="str">
+      <c r="T1" s="4" t="e">
         <f>_xlfn.XLOOKUP(#REF!,'[1]Base FPD RCS'!$G:$G,'[1]Base FPD RCS'!$AK:$AK,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -31772,107 +31869,101 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
     </row>
-    <row r="3" spans="1:36" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+    <row r="3" spans="1:36" s="83" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56">
         <v>45444</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="54">
-        <v>10273835645</v>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58">
+        <v>94007632634</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>34</v>
+      <c r="D3" s="57" t="s">
+        <v>79</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>35</v>
+      <c r="E3" s="59" t="s">
+        <v>80</v>
       </c>
-      <c r="F3" s="28">
-        <v>11</v>
+      <c r="F3" s="59">
+        <v>16</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>36</v>
+      <c r="G3" s="60" t="s">
+        <v>81</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>37</v>
+      <c r="H3" s="61" t="s">
+        <v>63</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="31">
-        <v>45444</v>
+      <c r="K3" s="62">
+        <v>45450</v>
       </c>
-      <c r="L3" s="32" t="s">
-        <v>40</v>
+      <c r="L3" s="63" t="s">
+        <v>69</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="34">
-        <v>45488</v>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="75" t="s">
+        <v>82</v>
       </c>
-      <c r="P3" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="36">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" s="44" t="s">
+      <c r="AB3" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="45" t="s">
-        <v>46</v>
+      <c r="AC3" s="77" t="s">
+        <v>63</v>
       </c>
-      <c r="AD3" s="44" t="s">
-        <v>47</v>
+      <c r="AD3" s="76" t="s">
+        <v>83</v>
       </c>
-      <c r="AE3" s="46" t="s">
-        <v>45</v>
+      <c r="AE3" s="78" t="s">
+        <v>58</v>
       </c>
-      <c r="AF3" s="47" t="s">
-        <v>48</v>
+      <c r="AF3" s="79" t="s">
+        <v>84</v>
       </c>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
     </row>
     <row r="4" spans="1:36" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51">
+      <c r="A4" s="26">
         <v>45444</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="54">
-        <v>15272675711</v>
+        <v>10273835645</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F4" s="28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>37</v>
@@ -31887,22 +31978,22 @@
         <v>45444</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>42</v>
       </c>
       <c r="O4" s="34">
-        <v>45480</v>
+        <v>45488</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="36">
-        <v>63.64</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="R4" s="32"/>
       <c r="S4" s="37"/>
@@ -31914,22 +32005,22 @@
       <c r="Y4" s="37"/>
       <c r="Z4" s="42"/>
       <c r="AA4" s="43" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AB4" s="44" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AC4" s="45" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AD4" s="44" t="s">
         <v>47</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AF4" s="47" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AG4" s="48"/>
       <c r="AH4" s="49"/>
@@ -31937,27 +32028,27 @@
       <c r="AJ4" s="5"/>
     </row>
     <row r="5" spans="1:36" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5" s="51">
         <v>45444</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="54">
-        <v>373873670</v>
+        <v>15272675711</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F5" s="28">
         <v>7</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>38</v>
@@ -31972,19 +32063,19 @@
         <v>52</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="34">
-        <v>45483</v>
+        <v>45480</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="36">
-        <v>92.13</v>
+        <v>63.64</v>
       </c>
       <c r="R5" s="32"/>
       <c r="S5" s="37"/>
@@ -31996,72 +32087,78 @@
       <c r="Y5" s="37"/>
       <c r="Z5" s="42"/>
       <c r="AA5" s="43" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AB5" s="44" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AC5" s="45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="44" t="s">
         <v>47</v>
       </c>
       <c r="AE5" s="46" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AF5" s="47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AG5" s="48"/>
       <c r="AH5" s="49"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
     </row>
-    <row r="6" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B6" s="27"/>
-      <c r="C6" s="55">
-        <v>23285993000190</v>
+      <c r="C6" s="54">
+        <v>373873670</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F6" s="28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="31">
-        <v>45479</v>
+        <v>45444</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
+      <c r="O6" s="34">
+        <v>45483</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>92.13</v>
+      </c>
       <c r="R6" s="32"/>
       <c r="S6" s="37"/>
       <c r="T6" s="4"/>
@@ -32074,13 +32171,25 @@
       <c r="AA6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="47"/>
+      <c r="AB6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD6" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="47" t="s">
+        <v>64</v>
+      </c>
       <c r="AG6" s="48"/>
       <c r="AH6" s="49"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
     </row>
     <row r="7" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
@@ -32088,19 +32197,19 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="55">
-        <v>8649221000105</v>
+        <v>23285993000190</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F7" s="28">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>37</v>
@@ -32112,13 +32221,13 @@
         <v>39</v>
       </c>
       <c r="K7" s="31">
-        <v>45475</v>
+        <v>45479</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="N7" s="33" t="s">
         <v>42</v>
@@ -32152,34 +32261,34 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="55">
-        <v>39810923000144</v>
+        <v>8649221000105</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
-      <c r="E8" s="28">
-        <v>2748044</v>
+      <c r="E8" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="F8" s="28">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="K8" s="31">
-        <v>45481</v>
+        <v>45475</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M8" s="30" t="s">
         <v>53</v>
@@ -32210,27 +32319,91 @@
       <c r="AG8" s="48"/>
       <c r="AH8" s="49"/>
     </row>
+    <row r="9" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>45474</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="55">
+        <v>39810923000144</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="28">
+        <v>2748044</v>
+      </c>
+      <c r="F9" s="28">
+        <v>13</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="31">
+        <v>45481</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="49"/>
+    </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH8 AC3:AC8" xr:uid="{3B00F0DA-114F-4935-BCDA-69442688C05D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH9 AC3:AC9" xr:uid="{3B00F0DA-114F-4935-BCDA-69442688C05D}">
       <formula1>"Ativo, Boleto, Ativado, Desativado, Erro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD8" xr:uid="{A8AE9812-DA22-4EF5-8709-87030BD96117}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD9" xr:uid="{A8AE9812-DA22-4EF5-8709-87030BD96117}">
       <formula1>"Sim, Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S8 V3:V8 Y3:Y8 P3:P8" xr:uid="{6688172A-2C21-44FA-AAEB-50C2F3CBA18F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S9 V3:V9 Y3:Y9 P3:P9" xr:uid="{6688172A-2C21-44FA-AAEB-50C2F3CBA18F}">
       <formula1>"Paga, Em Aberto"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA8" xr:uid="{76C4D8DE-C40B-4AC8-96B9-9C9E7828694A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA9" xr:uid="{76C4D8DE-C40B-4AC8-96B9-9C9E7828694A}">
       <formula1>"Ok, Pendente, Cancelado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB8" xr:uid="{EC145272-6D55-4392-89AE-655275C1BE92}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB9" xr:uid="{EC145272-6D55-4392-89AE-655275C1BE92}">
       <formula1>"N/A, Fácil, Médio, Dificil"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE8" xr:uid="{D69F3169-7F93-4E99-A0BE-115A7913FD12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE9" xr:uid="{D69F3169-7F93-4E99-A0BE-115A7913FD12}">
       <formula1>"PagSeguro Máquina, Problema no DACC, Internet não Funciona, Data Vencimento, Problemas Financeiros, Não recebeu a conta, Outros motivos, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8" xr:uid="{6E3E7E7C-17F2-44C4-9822-B7647277DF66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B9" xr:uid="{6E3E7E7C-17F2-44C4-9822-B7647277DF66}">
       <formula1>"Caio Henrique, Estella Vitoria"</formula1>
     </dataValidation>
   </dataValidations>

--- a/controle_qualidade.xlsx
+++ b/controle_qualidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProDesk_600_G3\Documents\bot_consultar_faturas\consultar_testejs\bot_consulta_faturas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF40C64-7503-4937-A98E-B01CBA4A0778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A4D155-3CCB-4E93-A96C-28FFBE896A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FA937B2F-AC17-4E66-A5CB-6FC88E085EFE}"/>
+    <workbookView xWindow="28680" yWindow="1440" windowWidth="21840" windowHeight="13740" xr2:uid="{FA937B2F-AC17-4E66-A5CB-6FC88E085EFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Safras em Tratamento" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>Safra</t>
   </si>
@@ -361,46 +361,7 @@
     <t>Primeira fatura enviada, aguardando pagamento (Atualizado 05/07/2024) Primeira fatura paga (Atualizado 16/07/2024)</t>
   </si>
   <si>
-    <t>ENDOCRINO CLINICA MEDICA LTDA</t>
-  </si>
-  <si>
-    <t>4-179013558764</t>
-  </si>
-  <si>
-    <t>(71) 99238-9951</t>
-  </si>
-  <si>
-    <t>NMEI</t>
-  </si>
-  <si>
     <t>Thamyris Nunes Santana</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>COMUNIDADE EVANGELICA NACAO SANTA VIVENDO EM CRISTO</t>
-  </si>
-  <si>
-    <t>4-178784159320</t>
-  </si>
-  <si>
-    <t>(21) 98607-5362</t>
-  </si>
-  <si>
-    <t>Emilly Maciel Rodrigues</t>
-  </si>
-  <si>
-    <t>EC SERVICOS IMOBILIARIOS E ADMINISTRATIVOS LTDA</t>
-  </si>
-  <si>
-    <t>(21) 99887-1217</t>
-  </si>
-  <si>
-    <t>NOVA FIBRA</t>
-  </si>
-  <si>
-    <t>Shayanne Souza Costa</t>
   </si>
   <si>
     <t>ROMILDO DOS SANTOS VILELA</t>
@@ -425,13 +386,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="165" formatCode="00000000000000"/>
     <numFmt numFmtId="166" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -858,9 +818,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -31716,18 +31673,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB2E909-9E96-4F77-BC3A-18504839B008}">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="12.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="E1" s="1"/>
@@ -31763,7 +31720,7 @@
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
     </row>
-    <row r="2" spans="1:36" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="25" customFormat="1" ht="11.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -31869,83 +31826,83 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
     </row>
-    <row r="3" spans="1:36" s="83" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+    <row r="3" spans="1:36" s="82" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A3" s="55">
         <v>45444</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57">
         <v>94007632634</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>79</v>
+      <c r="D3" s="56" t="s">
+        <v>66</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>80</v>
+      <c r="E3" s="58" t="s">
+        <v>67</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="58">
         <v>16</v>
       </c>
-      <c r="G3" s="60" t="s">
-        <v>81</v>
+      <c r="G3" s="59" t="s">
+        <v>68</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="61">
         <v>45450</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="64"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB3" s="76" t="s">
+      <c r="AB3" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="76" t="s">
-        <v>83</v>
+      <c r="AD3" s="75" t="s">
+        <v>70</v>
       </c>
-      <c r="AE3" s="78" t="s">
+      <c r="AE3" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="AF3" s="79" t="s">
-        <v>84</v>
+      <c r="AF3" s="78" t="s">
+        <v>71</v>
       </c>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
     </row>
-    <row r="4" spans="1:36" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="50" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="26">
         <v>45444</v>
       </c>
@@ -32027,7 +31984,7 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
     </row>
-    <row r="5" spans="1:36" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="50" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="51">
         <v>45444</v>
       </c>
@@ -32109,7 +32066,7 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
     </row>
-    <row r="6" spans="1:36" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="50" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="26">
         <v>45444</v>
       </c>
@@ -32191,219 +32148,27 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
     </row>
-    <row r="7" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
-        <v>45474</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="55">
-        <v>23285993000190</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="28">
-        <v>2</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="31">
-        <v>45479</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="49"/>
-    </row>
-    <row r="8" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>45474</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="55">
-        <v>8649221000105</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="28">
-        <v>20</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="31">
-        <v>45475</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="49"/>
-    </row>
-    <row r="9" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>45474</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="55">
-        <v>39810923000144</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="28">
-        <v>2748044</v>
-      </c>
-      <c r="F9" s="28">
-        <v>13</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="31">
-        <v>45481</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="49"/>
-    </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH9 AC3:AC9" xr:uid="{3B00F0DA-114F-4935-BCDA-69442688C05D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH6 AC3:AC6" xr:uid="{3B00F0DA-114F-4935-BCDA-69442688C05D}">
       <formula1>"Ativo, Boleto, Ativado, Desativado, Erro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD9" xr:uid="{A8AE9812-DA22-4EF5-8709-87030BD96117}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD6" xr:uid="{A8AE9812-DA22-4EF5-8709-87030BD96117}">
       <formula1>"Sim, Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S9 V3:V9 Y3:Y9 P3:P9" xr:uid="{6688172A-2C21-44FA-AAEB-50C2F3CBA18F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S6 V3:V6 Y3:Y6 P3:P6" xr:uid="{6688172A-2C21-44FA-AAEB-50C2F3CBA18F}">
       <formula1>"Paga, Em Aberto"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA9" xr:uid="{76C4D8DE-C40B-4AC8-96B9-9C9E7828694A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA6" xr:uid="{76C4D8DE-C40B-4AC8-96B9-9C9E7828694A}">
       <formula1>"Ok, Pendente, Cancelado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB9" xr:uid="{EC145272-6D55-4392-89AE-655275C1BE92}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB6" xr:uid="{EC145272-6D55-4392-89AE-655275C1BE92}">
       <formula1>"N/A, Fácil, Médio, Dificil"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE9" xr:uid="{D69F3169-7F93-4E99-A0BE-115A7913FD12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE6" xr:uid="{D69F3169-7F93-4E99-A0BE-115A7913FD12}">
       <formula1>"PagSeguro Máquina, Problema no DACC, Internet não Funciona, Data Vencimento, Problemas Financeiros, Não recebeu a conta, Outros motivos, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B9" xr:uid="{6E3E7E7C-17F2-44C4-9822-B7647277DF66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6" xr:uid="{6E3E7E7C-17F2-44C4-9822-B7647277DF66}">
       <formula1>"Caio Henrique, Estella Vitoria"</formula1>
     </dataValidation>
   </dataValidations>
